--- a/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T08:36:41+00:00</t>
+    <t>2024-06-19T09:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T09:38:46+00:00</t>
+    <t>2024-07-01T12:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:36:06+00:00</t>
+    <t>2024-07-01T15:09:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:09:06+00:00</t>
+    <t>2024-07-01T15:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:38:12+00:00</t>
+    <t>2024-07-01T15:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:40:44+00:00</t>
+    <t>2024-07-02T08:49:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T08:49:24+00:00</t>
+    <t>2024-07-02T09:45:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/Publication-402/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:45:39+00:00</t>
+    <t>2024-07-02T13:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
